--- a/Daily/Ljung_Box/Square First Difference/sony.xlsx
+++ b/Daily/Ljung_Box/Square First Difference/sony.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.386443050014132E-07</v>
+        <v>0.1046923832588816</v>
+      </c>
+      <c r="C2">
+        <v>0.7462696430744811</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.02943111591136357</v>
+        <v>0.2272750407641329</v>
+      </c>
+      <c r="C3">
+        <v>0.8925814398299817</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.830614335981029</v>
+        <v>0.4453988912170809</v>
       </c>
       <c r="C4">
-        <v>0.01574962258355638</v>
+        <v>0.9307124244845806</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.696229052284175</v>
+        <v>2.688750578169357</v>
       </c>
       <c r="C5">
-        <v>0.03515056713518089</v>
+        <v>0.6111845473535267</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6.843721866776986</v>
+        <v>2.778091074244781</v>
       </c>
       <c r="C6">
-        <v>0.07704926371217388</v>
+        <v>0.7341512776112443</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.09952668308384</v>
+        <v>2.969047276675762</v>
       </c>
       <c r="C7">
-        <v>0.1307212451257914</v>
+        <v>0.8127215874752611</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.608281866417298</v>
+        <v>3.249887827325181</v>
       </c>
       <c r="C8">
-        <v>0.179186385036634</v>
+        <v>0.8609636408143639</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8.32162152408994</v>
+        <v>3.536982884915243</v>
       </c>
       <c r="C9">
-        <v>0.2154746064160195</v>
+        <v>0.8963005311539544</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11.25702760638654</v>
+        <v>3.80551108907699</v>
       </c>
       <c r="C10">
-        <v>0.1277939206598408</v>
+        <v>0.9237405442919437</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12.14050777241509</v>
+        <v>5.02070767943037</v>
       </c>
       <c r="C11">
-        <v>0.1450440172164364</v>
+        <v>0.8897904366337732</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12.29675570434091</v>
+        <v>5.039952541995369</v>
       </c>
       <c r="C12">
-        <v>0.1970919182919846</v>
+        <v>0.9292162919381659</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>13.91209777522228</v>
+        <v>5.712377115027427</v>
       </c>
       <c r="C13">
-        <v>0.1770389932740594</v>
+        <v>0.9298811795371502</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>16.11739702567251</v>
+        <v>5.987741496683745</v>
       </c>
       <c r="C14">
-        <v>0.1368282153909317</v>
+        <v>0.9465979604547078</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>16.99356165481582</v>
+        <v>6.694274801718134</v>
       </c>
       <c r="C15">
-        <v>0.1498396596601427</v>
+        <v>0.9458555936357471</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>17.20625186367629</v>
+        <v>6.71846385232026</v>
       </c>
       <c r="C16">
-        <v>0.1900461829894064</v>
+        <v>0.9649964586361038</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>17.9767762971777</v>
+        <v>6.822586269768899</v>
       </c>
       <c r="C17">
-        <v>0.2078406150147017</v>
+        <v>0.9765309442457661</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>19.13049645277884</v>
+        <v>7.123217949253207</v>
       </c>
       <c r="C18">
-        <v>0.2078812247225136</v>
+        <v>0.9818964102510475</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>19.13373960868048</v>
+        <v>7.199803521351621</v>
       </c>
       <c r="C19">
-        <v>0.2617889105454095</v>
+        <v>0.9883304657747338</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>19.17922438045071</v>
+        <v>7.585127573405628</v>
       </c>
       <c r="C20">
-        <v>0.3183423931774222</v>
+        <v>0.9903803903464347</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>21.48804355685446</v>
+        <v>11.28718247987659</v>
       </c>
       <c r="C21">
-        <v>0.2555090510111092</v>
+        <v>0.938432224911631</v>
       </c>
     </row>
   </sheetData>
